--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -232,14 +232,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Printer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>印表機</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,6 +250,22 @@
   <si>
     <t>StanIp,FileCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerIp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印表機伺服器IP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設印表機</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -849,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -900,7 +908,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -995,6 +1003,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -1012,93 +1021,118 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>39</v>
+        <f t="shared" ref="A11:A16" si="0">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="18">
-        <v>6</v>
-      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1120,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -1146,13 +1180,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
@@ -196,10 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>印表機設定檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FileCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,15 +216,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工作站IP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -248,23 +236,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ServerIp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印表機伺服器IP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設印表機</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印表機設定檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站IP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>StanIp,FileCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ServerIp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>印表機伺服器IP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Printer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設印表機</t>
+    <t>檔案編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +860,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -883,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -987,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
@@ -1007,16 +1007,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
@@ -1027,16 +1027,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
@@ -1047,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -1156,7 +1156,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
